--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$64</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$66</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1556,6 +1556,52 @@
         <v>5151</v>
       </c>
     </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B65" s="0">
+        <v>1068979</v>
+      </c>
+      <c r="C65" s="0">
+        <v>14561</v>
+      </c>
+      <c r="D65" s="0">
+        <v>723160</v>
+      </c>
+      <c r="E65" s="0">
+        <v>10355</v>
+      </c>
+      <c r="F65" s="0">
+        <v>343537</v>
+      </c>
+      <c r="G65" s="0">
+        <v>4356</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B66" s="0">
+        <v>1085182</v>
+      </c>
+      <c r="C66" s="0">
+        <v>16203</v>
+      </c>
+      <c r="D66" s="0">
+        <v>731248</v>
+      </c>
+      <c r="E66" s="0">
+        <v>8088</v>
+      </c>
+      <c r="F66" s="0">
+        <v>351801</v>
+      </c>
+      <c r="G66" s="0">
+        <v>8264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$64</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$65</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1556,6 +1556,29 @@
         <v>5151</v>
       </c>
     </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B65" s="0">
+        <v>1068979</v>
+      </c>
+      <c r="C65" s="0">
+        <v>14561</v>
+      </c>
+      <c r="D65" s="0">
+        <v>723160</v>
+      </c>
+      <c r="E65" s="0">
+        <v>10355</v>
+      </c>
+      <c r="F65" s="0">
+        <v>343537</v>
+      </c>
+      <c r="G65" s="0">
+        <v>4356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$66</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$68</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1602,6 +1602,52 @@
         <v>8264</v>
       </c>
     </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B67" s="0">
+        <v>1099230</v>
+      </c>
+      <c r="C67" s="0">
+        <v>14048</v>
+      </c>
+      <c r="D67" s="0">
+        <v>737391</v>
+      </c>
+      <c r="E67" s="0">
+        <v>6143</v>
+      </c>
+      <c r="F67" s="0">
+        <v>359684</v>
+      </c>
+      <c r="G67" s="0">
+        <v>7883</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B68" s="0">
+        <v>1111118</v>
+      </c>
+      <c r="C68" s="0">
+        <v>11888</v>
+      </c>
+      <c r="D68" s="0">
+        <v>742460</v>
+      </c>
+      <c r="E68" s="0">
+        <v>5069</v>
+      </c>
+      <c r="F68" s="0">
+        <v>366471</v>
+      </c>
+      <c r="G68" s="0">
+        <v>6787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$66</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$67</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1602,6 +1602,29 @@
         <v>8264</v>
       </c>
     </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B67" s="0">
+        <v>1099230</v>
+      </c>
+      <c r="C67" s="0">
+        <v>14048</v>
+      </c>
+      <c r="D67" s="0">
+        <v>737391</v>
+      </c>
+      <c r="E67" s="0">
+        <v>6143</v>
+      </c>
+      <c r="F67" s="0">
+        <v>359684</v>
+      </c>
+      <c r="G67" s="0">
+        <v>7883</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$68</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$69</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1648,6 +1648,29 @@
         <v>6787</v>
       </c>
     </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B69" s="0">
+        <v>1131689</v>
+      </c>
+      <c r="C69" s="0">
+        <v>20571</v>
+      </c>
+      <c r="D69" s="0">
+        <v>753007</v>
+      </c>
+      <c r="E69" s="0">
+        <v>10547</v>
+      </c>
+      <c r="F69" s="0">
+        <v>376226</v>
+      </c>
+      <c r="G69" s="0">
+        <v>9755</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$69</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$71</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1671,6 +1671,52 @@
         <v>9755</v>
       </c>
     </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B70" s="0">
+        <v>1165626</v>
+      </c>
+      <c r="C70" s="0">
+        <v>33937</v>
+      </c>
+      <c r="D70" s="0">
+        <v>768780</v>
+      </c>
+      <c r="E70" s="0">
+        <v>15773</v>
+      </c>
+      <c r="F70" s="0">
+        <v>394199</v>
+      </c>
+      <c r="G70" s="0">
+        <v>17973</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B71" s="0">
+        <v>1200616</v>
+      </c>
+      <c r="C71" s="0">
+        <v>34990</v>
+      </c>
+      <c r="D71" s="0">
+        <v>786956</v>
+      </c>
+      <c r="E71" s="0">
+        <v>18176</v>
+      </c>
+      <c r="F71" s="0">
+        <v>410769</v>
+      </c>
+      <c r="G71" s="0">
+        <v>16570</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$69</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$70</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1671,6 +1671,29 @@
         <v>9755</v>
       </c>
     </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B70" s="0">
+        <v>1165626</v>
+      </c>
+      <c r="C70" s="0">
+        <v>33937</v>
+      </c>
+      <c r="D70" s="0">
+        <v>768780</v>
+      </c>
+      <c r="E70" s="0">
+        <v>15773</v>
+      </c>
+      <c r="F70" s="0">
+        <v>394199</v>
+      </c>
+      <c r="G70" s="0">
+        <v>17973</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$71</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$72</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1717,6 +1717,29 @@
         <v>16570</v>
       </c>
     </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B72" s="0">
+        <v>1245604</v>
+      </c>
+      <c r="C72" s="0">
+        <v>44988</v>
+      </c>
+      <c r="D72" s="0">
+        <v>811670</v>
+      </c>
+      <c r="E72" s="0">
+        <v>24714</v>
+      </c>
+      <c r="F72" s="0">
+        <v>430569</v>
+      </c>
+      <c r="G72" s="0">
+        <v>19800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$72</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$75</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1740,6 +1740,75 @@
         <v>19800</v>
       </c>
     </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B73" s="0">
+        <v>1304609</v>
+      </c>
+      <c r="C73" s="0">
+        <v>59005</v>
+      </c>
+      <c r="D73" s="0">
+        <v>846119</v>
+      </c>
+      <c r="E73" s="0">
+        <v>34449</v>
+      </c>
+      <c r="F73" s="0">
+        <v>454840</v>
+      </c>
+      <c r="G73" s="0">
+        <v>24271</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B74" s="0">
+        <v>1347871</v>
+      </c>
+      <c r="C74" s="0">
+        <v>43262</v>
+      </c>
+      <c r="D74" s="0">
+        <v>874798</v>
+      </c>
+      <c r="E74" s="0">
+        <v>28679</v>
+      </c>
+      <c r="F74" s="0">
+        <v>469292</v>
+      </c>
+      <c r="G74" s="0">
+        <v>14452</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B75" s="0">
+        <v>1368885</v>
+      </c>
+      <c r="C75" s="0">
+        <v>21014</v>
+      </c>
+      <c r="D75" s="0">
+        <v>889366</v>
+      </c>
+      <c r="E75" s="0">
+        <v>14568</v>
+      </c>
+      <c r="F75" s="0">
+        <v>475580</v>
+      </c>
+      <c r="G75" s="0">
+        <v>6288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$72</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$73</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1740,6 +1740,29 @@
         <v>19800</v>
       </c>
     </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B73" s="0">
+        <v>1304609</v>
+      </c>
+      <c r="C73" s="0">
+        <v>59005</v>
+      </c>
+      <c r="D73" s="0">
+        <v>846119</v>
+      </c>
+      <c r="E73" s="0">
+        <v>34449</v>
+      </c>
+      <c r="F73" s="0">
+        <v>454840</v>
+      </c>
+      <c r="G73" s="0">
+        <v>24271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$75</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$76</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1809,6 +1809,29 @@
         <v>6288</v>
       </c>
     </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B76" s="0">
+        <v>1393334</v>
+      </c>
+      <c r="C76" s="0">
+        <v>24449</v>
+      </c>
+      <c r="D76" s="0">
+        <v>906145</v>
+      </c>
+      <c r="E76" s="0">
+        <v>16779</v>
+      </c>
+      <c r="F76" s="0">
+        <v>483058</v>
+      </c>
+      <c r="G76" s="0">
+        <v>7478</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$76</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$77</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1832,6 +1832,29 @@
         <v>7478</v>
       </c>
     </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B77" s="0">
+        <v>1435667</v>
+      </c>
+      <c r="C77" s="0">
+        <v>42333</v>
+      </c>
+      <c r="D77" s="0">
+        <v>933250</v>
+      </c>
+      <c r="E77" s="0">
+        <v>27105</v>
+      </c>
+      <c r="F77" s="0">
+        <v>498245</v>
+      </c>
+      <c r="G77" s="0">
+        <v>15187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$77</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$78</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1855,6 +1855,29 @@
         <v>15187</v>
       </c>
     </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B78" s="0">
+        <v>1481175</v>
+      </c>
+      <c r="C78" s="0">
+        <v>45508</v>
+      </c>
+      <c r="D78" s="0">
+        <v>959040</v>
+      </c>
+      <c r="E78" s="0">
+        <v>25790</v>
+      </c>
+      <c r="F78" s="0">
+        <v>517345</v>
+      </c>
+      <c r="G78" s="0">
+        <v>19100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$77</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$79</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1855,6 +1855,52 @@
         <v>15187</v>
       </c>
     </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B78" s="0">
+        <v>1481175</v>
+      </c>
+      <c r="C78" s="0">
+        <v>45508</v>
+      </c>
+      <c r="D78" s="0">
+        <v>959040</v>
+      </c>
+      <c r="E78" s="0">
+        <v>25790</v>
+      </c>
+      <c r="F78" s="0">
+        <v>517345</v>
+      </c>
+      <c r="G78" s="0">
+        <v>19100</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B79" s="0">
+        <v>1520775</v>
+      </c>
+      <c r="C79" s="0">
+        <v>39600</v>
+      </c>
+      <c r="D79" s="0">
+        <v>980795</v>
+      </c>
+      <c r="E79" s="0">
+        <v>21755</v>
+      </c>
+      <c r="F79" s="0">
+        <v>534807</v>
+      </c>
+      <c r="G79" s="0">
+        <v>17462</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$79</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$80</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1901,6 +1901,29 @@
         <v>17462</v>
       </c>
     </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B80" s="0">
+        <v>1567864</v>
+      </c>
+      <c r="C80" s="0">
+        <v>47089</v>
+      </c>
+      <c r="D80" s="0">
+        <v>1008153</v>
+      </c>
+      <c r="E80" s="0">
+        <v>27358</v>
+      </c>
+      <c r="F80" s="0">
+        <v>554245</v>
+      </c>
+      <c r="G80" s="0">
+        <v>19438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$80</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$81</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1924,6 +1924,29 @@
         <v>19438</v>
       </c>
     </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B81" s="0">
+        <v>1605795</v>
+      </c>
+      <c r="C81" s="0">
+        <v>37931</v>
+      </c>
+      <c r="D81" s="0">
+        <v>1027464</v>
+      </c>
+      <c r="E81" s="0">
+        <v>19311</v>
+      </c>
+      <c r="F81" s="0">
+        <v>572702</v>
+      </c>
+      <c r="G81" s="0">
+        <v>18457</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$80</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$82</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1924,6 +1924,52 @@
         <v>19438</v>
       </c>
     </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B81" s="0">
+        <v>1605795</v>
+      </c>
+      <c r="C81" s="0">
+        <v>37931</v>
+      </c>
+      <c r="D81" s="0">
+        <v>1027464</v>
+      </c>
+      <c r="E81" s="0">
+        <v>19311</v>
+      </c>
+      <c r="F81" s="0">
+        <v>572702</v>
+      </c>
+      <c r="G81" s="0">
+        <v>18457</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B82" s="0">
+        <v>1625635</v>
+      </c>
+      <c r="C82" s="0">
+        <v>19840</v>
+      </c>
+      <c r="D82" s="0">
+        <v>1040681</v>
+      </c>
+      <c r="E82" s="0">
+        <v>13217</v>
+      </c>
+      <c r="F82" s="0">
+        <v>579355</v>
+      </c>
+      <c r="G82" s="0">
+        <v>6653</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$82</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$83</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1970,6 +1970,29 @@
         <v>6653</v>
       </c>
     </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B83" s="0">
+        <v>1648092</v>
+      </c>
+      <c r="C83" s="0">
+        <v>22457</v>
+      </c>
+      <c r="D83" s="0">
+        <v>1055358</v>
+      </c>
+      <c r="E83" s="0">
+        <v>14677</v>
+      </c>
+      <c r="F83" s="0">
+        <v>587127</v>
+      </c>
+      <c r="G83" s="0">
+        <v>7772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$83</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$84</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1993,6 +1993,29 @@
         <v>7772</v>
       </c>
     </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B84" s="0">
+        <v>1690179</v>
+      </c>
+      <c r="C84" s="0">
+        <v>42087</v>
+      </c>
+      <c r="D84" s="0">
+        <v>1083455</v>
+      </c>
+      <c r="E84" s="0">
+        <v>28097</v>
+      </c>
+      <c r="F84" s="0">
+        <v>601564</v>
+      </c>
+      <c r="G84" s="0">
+        <v>14437</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$84</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$85</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2016,6 +2016,29 @@
         <v>14437</v>
       </c>
     </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B85" s="0">
+        <v>1743392</v>
+      </c>
+      <c r="C85" s="0">
+        <v>53213</v>
+      </c>
+      <c r="D85" s="0">
+        <v>1121350</v>
+      </c>
+      <c r="E85" s="0">
+        <v>37895</v>
+      </c>
+      <c r="F85" s="0">
+        <v>618656</v>
+      </c>
+      <c r="G85" s="0">
+        <v>17092</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
+++ b/data_tndoh/COVID_VACCINE_STATE_SUMMARY.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_STATESUMMARY"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$85</definedName>
+    <definedName name="FINAL_STATESUMMARY">'FINAL_STATESUMMARY'!$A$1:$G$86</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2039,6 +2039,29 @@
         <v>17092</v>
       </c>
     </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B86" s="0">
+        <v>1795720</v>
+      </c>
+      <c r="C86" s="0">
+        <v>52328</v>
+      </c>
+      <c r="D86" s="0">
+        <v>1160232</v>
+      </c>
+      <c r="E86" s="0">
+        <v>38882</v>
+      </c>
+      <c r="F86" s="0">
+        <v>633890</v>
+      </c>
+      <c r="G86" s="0">
+        <v>15234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
